--- a/Team-Data/2008-09/2-25-2008-09.xlsx
+++ b/Team-Data/2008-09/2-25-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
         <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>7.6</v>
       </c>
       <c r="M2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P2" t="n">
         <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T2" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
         <v>20.8</v>
@@ -732,40 +799,40 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -789,22 +856,22 @@
         <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -816,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -851,13 +918,13 @@
         <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.776</v>
+        <v>0.793</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -866,67 +933,67 @@
         <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
         <v>101.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -974,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -983,10 +1050,10 @@
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1051,7 +1118,7 @@
         <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>5.8</v>
@@ -1060,13 +1127,13 @@
         <v>15.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.738</v>
@@ -1078,16 +1145,16 @@
         <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1138,13 +1205,13 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP4" t="n">
         <v>18</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -1215,13 +1282,13 @@
         <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.439</v>
+        <v>0.456</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
@@ -1242,34 +1309,34 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1278,28 +1345,28 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,13 +1396,13 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR5" t="n">
         <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1344,28 +1411,28 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
         <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
@@ -1445,40 +1512,40 @@
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1487,10 +1554,10 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,19 +1569,19 @@
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,28 +1590,28 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX6" t="n">
         <v>5</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,49 +1661,49 @@
         <v>38.1</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
@@ -1645,16 +1712,16 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1699,16 +1766,16 @@
         <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J8" t="n">
         <v>78.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
@@ -1800,10 +1867,10 @@
         <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
         <v>40.9</v>
@@ -1824,19 +1891,19 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1851,22 +1918,22 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,13 +1948,13 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.482</v>
+        <v>0.491</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,7 +2025,7 @@
         <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
         <v>0.453</v>
@@ -1970,19 +2037,19 @@
         <v>13.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O9" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R9" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S9" t="n">
         <v>29.9</v>
@@ -1994,13 +2061,13 @@
         <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>6.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -2012,43 +2079,43 @@
         <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>-1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2060,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>16</v>
@@ -2069,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,22 +2145,22 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2230,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2251,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,25 +2461,25 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2433,19 +2500,19 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2454,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.417</v>
+        <v>0.407</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
@@ -2504,28 +2571,28 @@
         <v>38.9</v>
       </c>
       <c r="J12" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
         <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
@@ -2537,16 +2604,16 @@
         <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
@@ -2561,13 +2628,13 @@
         <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2615,16 +2682,16 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.259</v>
+        <v>0.246</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2695,19 +2762,19 @@
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
@@ -2719,10 +2786,10 @@
         <v>40.2</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2737,19 +2804,19 @@
         <v>20.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
         <v>27</v>
@@ -2758,10 +2825,10 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2800,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>18</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.821</v>
+        <v>0.825</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,31 +2944,31 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2910,7 +2977,7 @@
         <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
@@ -2919,16 +2986,16 @@
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,13 +3055,13 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -3032,34 +3099,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.263</v>
+        <v>0.268</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J15" t="n">
         <v>77.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
         <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.333</v>
@@ -3071,22 +3138,22 @@
         <v>25.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S15" t="n">
         <v>28.6</v>
       </c>
       <c r="T15" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U15" t="n">
         <v>16.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
@@ -3095,22 +3162,22 @@
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z15" t="n">
         <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
@@ -3152,7 +3219,7 @@
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
         <v>27</v>
@@ -3167,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3328,13 +3395,13 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -3414,16 +3481,16 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.363</v>
@@ -3432,34 +3499,34 @@
         <v>20.6</v>
       </c>
       <c r="P17" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S17" t="n">
         <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
         <v>24</v>
@@ -3468,13 +3535,13 @@
         <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3492,10 +3559,10 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3599,25 +3666,25 @@
         <v>83.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
         <v>18.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P18" t="n">
         <v>24.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
@@ -3626,7 +3693,7 @@
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
         <v>20.6</v>
@@ -3644,19 +3711,19 @@
         <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3686,7 +3753,7 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>17</v>
@@ -3695,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>4</v>
@@ -3713,10 +3780,10 @@
         <v>16</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.448</v>
+        <v>0.439</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K19" t="n">
         <v>0.443</v>
@@ -3787,34 +3854,34 @@
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P19" t="n">
         <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
         <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U19" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V19" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W19" t="n">
         <v>6.9</v>
@@ -3826,34 +3893,34 @@
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
         <v>20.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3868,22 +3935,22 @@
         <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>21</v>
@@ -3892,10 +3959,10 @@
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3966,13 +4033,13 @@
         <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O20" t="n">
         <v>18.7</v>
@@ -3981,25 +4048,25 @@
         <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T20" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="U20" t="n">
         <v>19.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4008,19 +4075,19 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC20" t="n">
         <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4053,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4077,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4089,10 +4156,10 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,19 +4209,19 @@
         <v>38.7</v>
       </c>
       <c r="J21" t="n">
-        <v>87.2</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
         <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
         <v>18</v>
@@ -4166,22 +4233,22 @@
         <v>0.793</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U21" t="n">
         <v>21.7</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
@@ -4190,31 +4257,31 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AC21" t="n">
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4235,22 +4302,22 @@
         <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -4384,37 +4451,37 @@
         <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>28</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4423,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4453,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,40 +4573,40 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L23" t="n">
         <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.394</v>
+        <v>0.396</v>
       </c>
       <c r="O23" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P23" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S23" t="n">
         <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
         <v>14.2</v>
@@ -4551,22 +4618,22 @@
         <v>5.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>24</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4602,13 +4669,13 @@
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,10 +4755,10 @@
         <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
@@ -4700,34 +4767,34 @@
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="O24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R24" t="n">
         <v>12.9</v>
       </c>
       <c r="S24" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>14.9</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.4</v>
@@ -4742,16 +4809,16 @@
         <v>21.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -4760,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4769,10 +4836,10 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4799,13 +4866,13 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>8</v>
@@ -4814,13 +4881,13 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4954,25 +5021,25 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
         <v>9</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -5049,70 +5116,70 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
         <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.759</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
         <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA26" t="n">
         <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5124,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,31 +5230,31 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.203</v>
+        <v>0.207</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
@@ -5246,13 +5313,13 @@
         <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O27" t="n">
         <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.803</v>
@@ -5264,10 +5331,10 @@
         <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>15.8</v>
@@ -5276,7 +5343,7 @@
         <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>5.2</v>
@@ -5288,13 +5355,13 @@
         <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,16 +5376,16 @@
         <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
@@ -5345,13 +5412,13 @@
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
         <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
@@ -5428,19 +5495,19 @@
         <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.771</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>32.2</v>
@@ -5449,10 +5516,10 @@
         <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5461,22 +5528,22 @@
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5500,7 +5567,7 @@
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5551,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5667,7 +5734,7 @@
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
@@ -5691,7 +5758,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.603</v>
+        <v>0.596</v>
       </c>
       <c r="H30" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J30" t="n">
         <v>79.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,34 +5859,34 @@
         <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
         <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X30" t="n">
         <v>4.8</v>
@@ -5834,16 +5901,16 @@
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5852,16 +5919,16 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>0.228</v>
+        <v>0.232</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
@@ -5974,16 +6041,16 @@
         <v>15.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O31" t="n">
         <v>17.2</v>
       </c>
       <c r="P31" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
@@ -5992,16 +6059,16 @@
         <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.1</v>
@@ -6016,19 +6083,19 @@
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6040,10 +6107,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6070,19 +6137,19 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-25-2008-09</t>
+          <t>2009-02-25</t>
         </is>
       </c>
     </row>
